--- a/biology/Zoologie/Angarosphecidae/Angarosphecidae.xlsx
+++ b/biology/Zoologie/Angarosphecidae/Angarosphecidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Angarosphecinae, Baissodidae, Baissodinae
 Les Angarosphecidae sont une famille fossile d'insectes hyménoptères de la superfamille des Apoidea. Les genres et espèces couvertes sont aujourd'hui disparues et ont été retrouvées fossilisées dans l'ambre. 
@@ -512,9 +524,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille a été décrite et publiée par Rasnitsyn en 1975[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille a été décrite et publiée par Rasnitsyn en 1975.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille regroupe les treize genres éteints suivants :
 †Angarosphex (Rasnitsyn, 1975)
@@ -587,7 +603,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Rasnitsyn, 1975, « Hymenoptera Apocrita of Mesozoic », Transactions of the Palaeontological Institute Academy of Sciences of the USSR, vol. 147, p. 1-134</t>
         </is>
